--- a/June/Others/Requisition of Tulip-2.xlsx
+++ b/June/Others/Requisition of Tulip-2.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Daily Requisition" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Requisition'!$A$4:$E$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Requisition'!$A$4:$E$74</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="98">
   <si>
     <t>Model Name</t>
   </si>
@@ -277,9 +277,6 @@
     <t>Daily Requisition for Tulip-2</t>
   </si>
   <si>
-    <t>20.06.19</t>
-  </si>
-  <si>
     <t>v141</t>
   </si>
   <si>
@@ -302,6 +299,18 @@
   </si>
   <si>
     <t>Black_Red</t>
+  </si>
+  <si>
+    <t>Gold/Black</t>
+  </si>
+  <si>
+    <t>23.06.19</t>
+  </si>
+  <si>
+    <t>B60</t>
+  </si>
+  <si>
+    <t>Mixed/Not Red</t>
   </si>
 </sst>
 </file>
@@ -948,13 +957,13 @@
   <sheetPr filterMode="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F79" sqref="F79"/>
+      <selection pane="bottomRight" activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -997,7 +1006,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="12.75">
@@ -1017,19 +1026,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" hidden="1">
+    <row r="5" spans="1:5" ht="15">
       <c r="A5" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="9">
         <v>779.94500000000005</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="8">
+        <v>80</v>
+      </c>
       <c r="D5" s="10">
         <f>C5*B5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="8"/>
+        <v>62395.600000000006</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="15" hidden="1">
       <c r="A6" s="8" t="s">
@@ -1040,7 +1053,7 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="10">
-        <f t="shared" ref="D6:D51" si="0">C6*B6</f>
+        <f t="shared" ref="D6:D52" si="0">C6*B6</f>
         <v>0</v>
       </c>
       <c r="E6" s="8"/>
@@ -1087,182 +1100,180 @@
       </c>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" ht="15">
-      <c r="A10" s="11" t="s">
-        <v>1</v>
+    <row r="10" spans="1:5" ht="15">
+      <c r="A10" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="B10" s="9">
-        <v>896.23500000000001</v>
+        <v>896.24</v>
       </c>
       <c r="C10" s="8">
         <v>80</v>
       </c>
-      <c r="D10" s="12">
-        <f t="shared" si="0"/>
-        <v>71698.8</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="10">
+        <f t="shared" si="0"/>
+        <v>71699.199999999997</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+      <c r="A11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="9">
+        <v>896.23500000000001</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" hidden="1">
+      <c r="A12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="9">
+        <v>868.16499999999996</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" hidden="1">
+      <c r="A13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="9">
+        <v>901.24749999999995</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" hidden="1">
-      <c r="A11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="9">
-        <v>868.16499999999996</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="15">
-      <c r="A12" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="9">
-        <v>901.24749999999995</v>
-      </c>
-      <c r="C12" s="8">
-        <v>20</v>
-      </c>
-      <c r="D12" s="10">
-        <f t="shared" si="0"/>
-        <v>18024.949999999997</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15">
-      <c r="A13" s="8" t="s">
+    <row r="14" spans="1:5" ht="15">
+      <c r="A14" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B14" s="9">
         <v>858.14</v>
       </c>
-      <c r="C13" s="8">
-        <v>20</v>
-      </c>
-      <c r="D13" s="10">
-        <f t="shared" si="0"/>
-        <v>17162.8</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
-      <c r="A14" s="11" t="s">
+      <c r="C14" s="8">
+        <v>10</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="0"/>
+        <v>8581.4</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+      <c r="A15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B15" s="9">
         <v>985.45749999999998</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" hidden="1">
-      <c r="A15" s="8" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" hidden="1">
+      <c r="A16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B16" s="9">
         <v>946.36</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
-      <c r="A16" s="11" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+      <c r="A17" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B17" s="9">
         <v>980.44500000000005</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="12">
-        <f>C16*B16</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:5" ht="15">
-      <c r="A17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="9">
-        <v>975.4325</v>
-      </c>
-      <c r="C17" s="8">
-        <v>50</v>
-      </c>
-      <c r="D17" s="10">
-        <f t="shared" si="0"/>
-        <v>48771.625</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="12">
+        <f>C17*B17</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5" ht="15" hidden="1">
       <c r="A18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="9">
+        <v>975.4325</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" hidden="1">
+      <c r="A19" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B19" s="9">
         <v>1140.845</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="12">
-        <f>C18*B18</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
-      <c r="A19" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="9">
-        <v>936.34</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" hidden="1">
-      <c r="A20" s="8" t="s">
-        <v>35</v>
+        <f>C19*B19</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+      <c r="A20" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="B20" s="9">
-        <v>955.38250000000005</v>
+        <v>936.34</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="8"/>
+      <c r="D20" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" ht="15" hidden="1">
       <c r="A21" s="8" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B21" s="9">
-        <v>1014.53</v>
+        <v>955.38250000000005</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="10">
@@ -1271,76 +1282,72 @@
       </c>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" ht="15">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:5" ht="15" hidden="1">
+      <c r="A22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="9">
+        <v>1014.53</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+      <c r="A23" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B23" s="9">
         <v>1159.8924999999999</v>
       </c>
-      <c r="C22" s="8">
-        <v>10</v>
-      </c>
-      <c r="D22" s="12">
-        <f t="shared" si="0"/>
-        <v>11598.924999999999</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" hidden="1">
-      <c r="A23" s="8" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" hidden="1">
+      <c r="A24" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B24" s="9">
         <v>2309.7600000000002</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" ht="15">
-      <c r="A24" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="9">
-        <v>2710.76</v>
-      </c>
-      <c r="C24" s="8">
-        <v>4</v>
-      </c>
+      <c r="C24" s="8"/>
       <c r="D24" s="10">
         <f t="shared" si="0"/>
-        <v>10843.04</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5" ht="15" hidden="1">
       <c r="A25" s="8" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B25" s="9">
-        <v>6397.96</v>
+        <v>2710.76</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="8"/>
+      <c r="E25" s="11" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="15" hidden="1">
       <c r="A26" s="8" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B26" s="9">
-        <v>5158.8649999999998</v>
+        <v>6397.96</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="10">
@@ -1351,10 +1358,10 @@
     </row>
     <row r="27" spans="1:5" ht="15" hidden="1">
       <c r="A27" s="8" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B27" s="9">
-        <v>5334.3029999999999</v>
+        <v>5158.8649999999998</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="10">
@@ -1365,10 +1372,10 @@
     </row>
     <row r="28" spans="1:5" ht="15" hidden="1">
       <c r="A28" s="8" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="B28" s="9">
-        <v>5819.5124999999998</v>
+        <v>5334.3029999999999</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="10">
@@ -1379,10 +1386,10 @@
     </row>
     <row r="29" spans="1:5" ht="15" hidden="1">
       <c r="A29" s="8" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="B29" s="9">
-        <v>5607.9849999999997</v>
+        <v>5819.5124999999998</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="10">
@@ -1393,10 +1400,10 @@
     </row>
     <row r="30" spans="1:5" ht="15" hidden="1">
       <c r="A30" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B30" s="9">
-        <v>5793.4475000000002</v>
+        <v>5607.9849999999997</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="10">
@@ -1405,40 +1412,44 @@
       </c>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:5" ht="15" hidden="1">
+    <row r="31" spans="1:5" ht="15">
       <c r="A31" s="8" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B31" s="9">
-        <v>7714.2375000000002</v>
-      </c>
-      <c r="C31" s="8"/>
+        <v>5793.4475000000002</v>
+      </c>
+      <c r="C31" s="8">
+        <v>5</v>
+      </c>
       <c r="D31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="11"/>
+        <v>28967.237500000003</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="15" hidden="1">
       <c r="A32" s="8" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B32" s="9">
-        <v>7722.2574999999997</v>
+        <v>7714.2375000000002</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="8"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" ht="15" hidden="1">
       <c r="A33" s="8" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B33" s="9">
-        <v>6369.8850000000002</v>
+        <v>7722.2574999999997</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="10">
@@ -1449,10 +1460,10 @@
     </row>
     <row r="34" spans="1:5" ht="15" hidden="1">
       <c r="A34" s="8" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B34" s="9">
-        <v>8967.36</v>
+        <v>6369.8850000000002</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="10">
@@ -1463,10 +1474,10 @@
     </row>
     <row r="35" spans="1:5" ht="15" hidden="1">
       <c r="A35" s="8" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B35" s="9">
-        <v>8134.2849999999999</v>
+        <v>8967.36</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="10">
@@ -1475,44 +1486,42 @@
       </c>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="1:5" ht="15">
+    <row r="36" spans="1:5" ht="15" hidden="1">
       <c r="A36" s="8" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B36" s="9">
-        <v>1169.9175</v>
-      </c>
-      <c r="C36" s="8">
-        <v>10</v>
-      </c>
+        <v>8134.2849999999999</v>
+      </c>
+      <c r="C36" s="8"/>
       <c r="D36" s="10">
-        <f t="shared" ref="D36" si="1">C36*B36</f>
-        <v>11699.174999999999</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>92</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" ht="15" hidden="1">
       <c r="A37" s="8" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="B37" s="9">
-        <v>1199.9925000000001</v>
+        <v>1169.9175</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="8"/>
+        <f t="shared" ref="D37" si="1">C37*B37</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="15" hidden="1">
       <c r="A38" s="8" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B38" s="9">
-        <v>1189.9675</v>
+        <v>1199.9925000000001</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="10">
@@ -1523,10 +1532,10 @@
     </row>
     <row r="39" spans="1:5" ht="15" hidden="1">
       <c r="A39" s="8" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B39" s="9">
-        <v>1423.55</v>
+        <v>1189.9675</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="10">
@@ -1537,10 +1546,10 @@
     </row>
     <row r="40" spans="1:5" ht="15" hidden="1">
       <c r="A40" s="8" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B40" s="9">
-        <v>1435.58</v>
+        <v>1423.55</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="10">
@@ -1549,101 +1558,99 @@
       </c>
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="1:5" ht="15">
+    <row r="41" spans="1:5" ht="15" hidden="1">
       <c r="A41" s="8" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B41" s="9">
-        <v>1053.6275000000001</v>
-      </c>
-      <c r="C41" s="8">
-        <v>10</v>
-      </c>
+        <v>1435.58</v>
+      </c>
+      <c r="C41" s="8"/>
       <c r="D41" s="10">
         <f t="shared" si="0"/>
-        <v>10536.275000000001</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5" ht="15" hidden="1">
       <c r="A42" s="8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B42" s="9">
-        <v>1072.675</v>
+        <v>1053.6275000000001</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" spans="1:5" ht="15">
+      <c r="E42" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" hidden="1">
       <c r="A43" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="9">
+        <v>1072.675</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="1:5" ht="15">
+      <c r="A44" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B44" s="9">
         <v>1092.7249999999999</v>
       </c>
-      <c r="C43" s="8">
-        <v>20</v>
-      </c>
-      <c r="D43" s="10">
-        <f t="shared" si="0"/>
-        <v>21854.5</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" hidden="1">
-      <c r="A44" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="9">
-        <v>1014.53</v>
-      </c>
-      <c r="C44" s="8"/>
+      <c r="C44" s="8">
+        <v>15</v>
+      </c>
       <c r="D44" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="8"/>
+        <v>16390.875</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="15" hidden="1">
       <c r="A45" s="8" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B45" s="9">
-        <v>1072.675</v>
+        <v>1014.53</v>
       </c>
       <c r="C45" s="8"/>
-      <c r="D45" s="10"/>
+      <c r="D45" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" ht="15" hidden="1">
       <c r="A46" s="8" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B46" s="9">
-        <v>1024.5550000000001</v>
+        <v>1072.675</v>
       </c>
       <c r="C46" s="8"/>
-      <c r="D46" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D46" s="10"/>
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" ht="15" hidden="1">
       <c r="A47" s="8" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B47" s="9">
-        <v>1101.7474999999999</v>
+        <v>1024.5550000000001</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="10">
@@ -1654,10 +1661,10 @@
     </row>
     <row r="48" spans="1:5" ht="15" hidden="1">
       <c r="A48" s="8" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B48" s="9">
-        <v>1072.675</v>
+        <v>1101.7474999999999</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="10">
@@ -1666,26 +1673,30 @@
       </c>
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="1:5" ht="15" hidden="1">
+    <row r="49" spans="1:5" ht="15">
       <c r="A49" s="8" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="B49" s="9">
-        <v>1297.2349999999999</v>
-      </c>
-      <c r="C49" s="8"/>
+        <v>1072.675</v>
+      </c>
+      <c r="C49" s="8">
+        <v>10</v>
+      </c>
       <c r="D49" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E49" s="8"/>
+        <v>10726.75</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="15" hidden="1">
       <c r="A50" s="8" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="B50" s="9">
-        <v>11964.8375</v>
+        <v>1297.2349999999999</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="10">
@@ -1696,10 +1707,10 @@
     </row>
     <row r="51" spans="1:5" ht="15" hidden="1">
       <c r="A51" s="8" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="B51" s="9">
-        <v>5607.9849999999997</v>
+        <v>11964.8375</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="10">
@@ -1710,38 +1721,38 @@
     </row>
     <row r="52" spans="1:5" ht="15" hidden="1">
       <c r="A52" s="8" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="B52" s="9">
-        <v>5183.9274999999998</v>
+        <v>5607.9849999999997</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="10">
-        <f t="shared" ref="D52:D72" si="2">C52*B52</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" ht="15" hidden="1">
       <c r="A53" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B53" s="9">
-        <v>5455.6049999999996</v>
+        <v>5183.9274999999998</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D53:D73" si="2">C53*B53</f>
         <v>0</v>
       </c>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" ht="15" hidden="1">
       <c r="A54" s="8" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="B54" s="9">
-        <v>4526.2875000000004</v>
+        <v>5455.6049999999996</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="10">
@@ -1752,10 +1763,10 @@
     </row>
     <row r="55" spans="1:5" ht="15" hidden="1">
       <c r="A55" s="8" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="B55" s="9">
-        <v>5510.7425000000003</v>
+        <v>4526.2875000000004</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="10">
@@ -1766,10 +1777,10 @@
     </row>
     <row r="56" spans="1:5" ht="15" hidden="1">
       <c r="A56" s="8" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B56" s="9">
-        <v>4896.21</v>
+        <v>5510.7425000000003</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="10">
@@ -1780,24 +1791,26 @@
     </row>
     <row r="57" spans="1:5" ht="15" hidden="1">
       <c r="A57" s="8" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B57" s="9">
-        <v>5150.8450000000003</v>
+        <v>4896.21</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E57" s="8"/>
+      <c r="E57" s="8" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="58" spans="1:5" ht="15" hidden="1">
       <c r="A58" s="8" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B58" s="9">
-        <v>4973.4025000000001</v>
+        <v>5150.8450000000003</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="10">
@@ -1806,70 +1819,68 @@
       </c>
       <c r="E58" s="8"/>
     </row>
-    <row r="59" spans="1:5" ht="15">
+    <row r="59" spans="1:5" ht="15" hidden="1">
       <c r="A59" s="8" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B59" s="9">
-        <v>4701.7299999999996</v>
-      </c>
-      <c r="C59" s="8">
-        <v>10</v>
-      </c>
+        <v>4973.4025000000001</v>
+      </c>
+      <c r="C59" s="8"/>
       <c r="D59" s="10">
         <f t="shared" si="2"/>
-        <v>47017.299999999996</v>
+        <v>0</v>
       </c>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" ht="15" hidden="1">
       <c r="A60" s="8" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="B60" s="9">
-        <v>5940.8149999999996</v>
+        <v>4701.7299999999996</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="10">
-        <f t="shared" ref="D60:D61" si="3">C60*B60</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" ht="15" hidden="1">
       <c r="A61" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B61" s="9">
-        <v>5257.11</v>
+        <v>5940.8149999999996</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D61:D62" si="3">C61*B61</f>
         <v>0</v>
       </c>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" ht="15" hidden="1">
       <c r="A62" s="8" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B62" s="9">
-        <v>3556.87</v>
+        <v>5257.11</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" ht="15" hidden="1">
       <c r="A63" s="8" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B63" s="9">
-        <v>3471.6574999999998</v>
+        <v>3556.87</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="10">
@@ -1880,10 +1891,10 @@
     </row>
     <row r="64" spans="1:5" ht="15" hidden="1">
       <c r="A64" s="8" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B64" s="9">
-        <v>3257.1224999999999</v>
+        <v>3471.6574999999998</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="10">
@@ -1894,10 +1905,10 @@
     </row>
     <row r="65" spans="1:9" ht="15" hidden="1">
       <c r="A65" s="8" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="B65" s="9">
-        <v>4389.9475000000002</v>
+        <v>3257.1224999999999</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="10">
@@ -1906,26 +1917,30 @@
       </c>
       <c r="E65" s="8"/>
     </row>
-    <row r="66" spans="1:9" ht="15" hidden="1">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="8" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B66" s="9">
-        <v>3618.0225</v>
-      </c>
-      <c r="C66" s="8"/>
+        <v>4389.9475000000002</v>
+      </c>
+      <c r="C66" s="8">
+        <v>2</v>
+      </c>
       <c r="D66" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E66" s="8"/>
+        <v>8779.8950000000004</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="67" spans="1:9" ht="15" hidden="1">
       <c r="A67" s="8" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B67" s="9">
-        <v>3530.8049999999998</v>
+        <v>3618.0225</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="10">
@@ -1936,10 +1951,10 @@
     </row>
     <row r="68" spans="1:9" ht="15" hidden="1">
       <c r="A68" s="8" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="B68" s="9">
-        <v>4507.24</v>
+        <v>3530.8049999999998</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="10">
@@ -1950,10 +1965,10 @@
     </row>
     <row r="69" spans="1:9" ht="15" hidden="1">
       <c r="A69" s="8" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B69" s="9">
-        <v>4408.9949999999999</v>
+        <v>4507.24</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="10">
@@ -1964,10 +1979,10 @@
     </row>
     <row r="70" spans="1:9" ht="15" hidden="1">
       <c r="A70" s="8" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B70" s="9">
-        <v>3979.9250000000002</v>
+        <v>4408.9949999999999</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="10">
@@ -1978,10 +1993,10 @@
     </row>
     <row r="71" spans="1:9" ht="15" hidden="1">
       <c r="A71" s="8" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B71" s="9">
-        <v>4115.2624999999998</v>
+        <v>3979.9250000000002</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="10">
@@ -1992,10 +2007,10 @@
     </row>
     <row r="72" spans="1:9" ht="15" hidden="1">
       <c r="A72" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B72" s="9">
-        <v>8599.4449999999997</v>
+        <v>4115.2624999999998</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="10">
@@ -2004,78 +2019,81 @@
       </c>
       <c r="E72" s="8"/>
     </row>
-    <row r="73" spans="1:9" s="2" customFormat="1" ht="15">
-      <c r="A73" s="37" t="s">
+    <row r="73" spans="1:9" ht="15" hidden="1">
+      <c r="A73" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="9">
+        <v>8599.4449999999997</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="8"/>
+    </row>
+    <row r="74" spans="1:9" s="2" customFormat="1" ht="15">
+      <c r="A74" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B73" s="37"/>
-      <c r="C73" s="24">
-        <f>SUM(C5:C72)</f>
-        <v>234</v>
-      </c>
-      <c r="D73" s="25">
-        <f>SUM(D5:D72)</f>
-        <v>269207.38999999996</v>
-      </c>
-      <c r="E73" s="24"/>
-    </row>
-    <row r="74" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A74" s="3"/>
-    </row>
-    <row r="75" spans="1:9" s="22" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A75" s="39"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="21"/>
-    </row>
-    <row r="76" spans="1:9" s="22" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A76" s="23"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="24">
+        <f>SUM(C5:C73)</f>
+        <v>202</v>
+      </c>
+      <c r="D74" s="25">
+        <f>SUM(D5:D73)</f>
+        <v>207540.95749999999</v>
+      </c>
+      <c r="E74" s="24"/>
+    </row>
+    <row r="75" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A75" s="3"/>
+    </row>
+    <row r="76" spans="1:9" s="22" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A76" s="39"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="41"/>
       <c r="E76" s="21"/>
     </row>
-    <row r="77" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A77" s="13"/>
-      <c r="B77" s="38" t="s">
+    <row r="77" spans="1:9" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A77" s="23"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="21"/>
+    </row>
+    <row r="78" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A78" s="13"/>
+      <c r="B78" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C77" s="38"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="14"/>
-    </row>
-    <row r="78" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A78" s="15"/>
-      <c r="B78" s="16" t="s">
+      <c r="C78" s="38"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="14"/>
+    </row>
+    <row r="79" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A79" s="15"/>
+      <c r="B79" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C79" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D78" s="16" t="s">
+      <c r="D79" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="14"/>
-      <c r="I78" s="17"/>
-    </row>
-    <row r="79" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A79" s="18"/>
-      <c r="B79" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C79" s="29"/>
-      <c r="D79" s="8"/>
       <c r="E79" s="14"/>
+      <c r="I79" s="17"/>
     </row>
     <row r="80" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A80" s="18"/>
       <c r="B80" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C80" s="29">
-        <v>270000</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C80" s="29"/>
       <c r="D80" s="8"/>
       <c r="E80" s="14"/>
     </row>
@@ -2084,14 +2102,16 @@
       <c r="B81" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="29"/>
+      <c r="C81" s="29">
+        <v>140000</v>
+      </c>
       <c r="D81" s="8"/>
       <c r="E81" s="14"/>
     </row>
     <row r="82" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A82" s="18"/>
       <c r="B82" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C82" s="29"/>
       <c r="D82" s="8"/>
@@ -2100,7 +2120,7 @@
     <row r="83" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A83" s="18"/>
       <c r="B83" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C83" s="29"/>
       <c r="D83" s="8"/>
@@ -2109,31 +2129,40 @@
     <row r="84" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A84" s="18"/>
       <c r="B84" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C84" s="29"/>
       <c r="D84" s="8"/>
       <c r="E84" s="14"/>
     </row>
     <row r="85" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A85" s="15"/>
-      <c r="B85" s="19" t="s">
+      <c r="A85" s="18"/>
+      <c r="B85" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" s="29"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="14"/>
+    </row>
+    <row r="86" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A86" s="15"/>
+      <c r="B86" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C85" s="30">
-        <f>SUM(C79:C84)</f>
-        <v>270000</v>
-      </c>
-      <c r="D85" s="20"/>
-      <c r="E85" s="14"/>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="3"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
+      <c r="C86" s="30">
+        <f>SUM(C80:C85)</f>
+        <v>140000</v>
+      </c>
+      <c r="D86" s="20"/>
+      <c r="E86" s="14"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="3"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:E73">
+  <autoFilter ref="A4:E74">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2143,9 +2172,9 @@
   <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="A76:D76"/>
     <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/June/Others/Requisition of Tulip-2.xlsx
+++ b/June/Others/Requisition of Tulip-2.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Daily Requisition" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Requisition'!$A$4:$E$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Requisition'!$A$4:$E$76</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="102">
   <si>
     <t>Model Name</t>
   </si>
@@ -103,9 +103,6 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>EDISON GROUP_SYMPHONY MOBILE</t>
-  </si>
-  <si>
     <t>B12i</t>
   </si>
   <si>
@@ -304,13 +301,28 @@
     <t>Gold/Black</t>
   </si>
   <si>
-    <t>23.06.19</t>
-  </si>
-  <si>
     <t>B60</t>
   </si>
   <si>
     <t>Mixed/Not Red</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>T130</t>
+  </si>
+  <si>
+    <t>L55</t>
+  </si>
+  <si>
+    <t>24.06.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold </t>
+  </si>
+  <si>
+    <t>Gold &amp; Black</t>
   </si>
 </sst>
 </file>
@@ -957,7 +969,7 @@
   <sheetPr filterMode="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
@@ -978,7 +990,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A1" s="31" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -987,7 +999,7 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A2" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -996,17 +1008,17 @@
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" ht="15">
       <c r="A3" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="12.75">
@@ -1026,41 +1038,39 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15">
+    <row r="5" spans="1:5" ht="15" hidden="1">
       <c r="A5" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="9">
         <v>779.94500000000005</v>
       </c>
-      <c r="C5" s="8">
-        <v>80</v>
-      </c>
+      <c r="C5" s="8"/>
       <c r="D5" s="10">
         <f>C5*B5</f>
-        <v>62395.600000000006</v>
+        <v>0</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" hidden="1">
       <c r="A6" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="9">
         <v>789.97</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="10">
-        <f t="shared" ref="D6:D52" si="0">C6*B6</f>
+        <f t="shared" ref="D6:D53" si="0">C6*B6</f>
         <v>0</v>
       </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="15" hidden="1">
       <c r="A7" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="9">
         <v>779.94500000000005</v>
@@ -1074,7 +1084,7 @@
     </row>
     <row r="8" spans="1:5" ht="15" hidden="1">
       <c r="A8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="9">
         <v>774.9325</v>
@@ -1088,7 +1098,7 @@
     </row>
     <row r="9" spans="1:5" ht="15" hidden="1">
       <c r="A9" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="9">
         <v>769.92</v>
@@ -1100,22 +1110,20 @@
       </c>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="15">
+    <row r="10" spans="1:5" ht="15" hidden="1">
       <c r="A10" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B10" s="9">
         <v>896.24</v>
       </c>
-      <c r="C10" s="8">
-        <v>80</v>
-      </c>
+      <c r="C10" s="8"/>
       <c r="D10" s="10">
         <f t="shared" si="0"/>
-        <v>71699.199999999997</v>
+        <v>0</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
@@ -1131,12 +1139,12 @@
         <v>0</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" hidden="1">
       <c r="A12" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="9">
         <v>868.16499999999996</v>
@@ -1148,25 +1156,27 @@
       </c>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" ht="15" hidden="1">
+    <row r="13" spans="1:5" ht="15">
       <c r="A13" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="9">
         <v>901.24749999999995</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="8">
+        <v>10</v>
+      </c>
       <c r="D13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9012.4749999999985</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15">
       <c r="A14" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="9">
         <v>858.14</v>
@@ -1179,12 +1189,12 @@
         <v>8581.4</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A15" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="9">
         <v>985.45749999999998</v>
@@ -1198,7 +1208,7 @@
     </row>
     <row r="16" spans="1:5" ht="15" hidden="1">
       <c r="A16" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="9">
         <v>946.36</v>
@@ -1210,19 +1220,23 @@
       </c>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A17" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="9">
         <v>980.44500000000005</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="8">
+        <v>60</v>
+      </c>
       <c r="D17" s="12">
         <f>C17*B17</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="11"/>
+        <v>58826.700000000004</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="15" hidden="1">
       <c r="A18" s="8" t="s">
@@ -1237,26 +1251,30 @@
         <v>0</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" hidden="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15">
       <c r="A19" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="9">
         <v>1140.845</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="8">
+        <v>40</v>
+      </c>
       <c r="D19" s="12">
         <f>C19*B19</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>45633.8</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A20" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="9">
         <v>936.34</v>
@@ -1270,7 +1288,7 @@
     </row>
     <row r="21" spans="1:5" ht="15" hidden="1">
       <c r="A21" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="9">
         <v>955.38250000000005</v>
@@ -1284,7 +1302,7 @@
     </row>
     <row r="22" spans="1:5" ht="15" hidden="1">
       <c r="A22" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="9">
         <v>1014.53</v>
@@ -1298,7 +1316,7 @@
     </row>
     <row r="23" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A23" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="9">
         <v>1159.8924999999999</v>
@@ -1309,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" hidden="1">
@@ -1328,7 +1346,7 @@
     </row>
     <row r="25" spans="1:5" ht="15" hidden="1">
       <c r="A25" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B25" s="9">
         <v>2710.76</v>
@@ -1339,12 +1357,12 @@
         <v>0</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" hidden="1">
       <c r="A26" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="9">
         <v>6397.96</v>
@@ -1358,7 +1376,7 @@
     </row>
     <row r="27" spans="1:5" ht="15" hidden="1">
       <c r="A27" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="9">
         <v>5158.8649999999998</v>
@@ -1372,7 +1390,7 @@
     </row>
     <row r="28" spans="1:5" ht="15" hidden="1">
       <c r="A28" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="9">
         <v>5334.3029999999999</v>
@@ -1400,7 +1418,7 @@
     </row>
     <row r="30" spans="1:5" ht="15" hidden="1">
       <c r="A30" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" s="9">
         <v>5607.9849999999997</v>
@@ -1412,27 +1430,25 @@
       </c>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:5" ht="15">
+    <row r="31" spans="1:5" ht="15" hidden="1">
       <c r="A31" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" s="9">
         <v>5793.4475000000002</v>
       </c>
-      <c r="C31" s="8">
-        <v>5</v>
-      </c>
+      <c r="C31" s="8"/>
       <c r="D31" s="10">
         <f t="shared" si="0"/>
-        <v>28967.237500000003</v>
+        <v>0</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" hidden="1">
       <c r="A32" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="9">
         <v>7714.2375000000002</v>
@@ -1458,23 +1474,27 @@
       </c>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="1:5" ht="15" hidden="1">
+    <row r="34" spans="1:5" ht="15">
       <c r="A34" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" s="9">
         <v>6369.8850000000002</v>
       </c>
-      <c r="C34" s="8"/>
+      <c r="C34" s="8">
+        <v>10</v>
+      </c>
       <c r="D34" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="8"/>
+        <v>63698.850000000006</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="15" hidden="1">
       <c r="A35" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" s="9">
         <v>8967.36</v>
@@ -1488,7 +1508,7 @@
     </row>
     <row r="36" spans="1:5" ht="15" hidden="1">
       <c r="A36" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B36" s="9">
         <v>8134.2849999999999</v>
@@ -1502,7 +1522,7 @@
     </row>
     <row r="37" spans="1:5" ht="15" hidden="1">
       <c r="A37" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37" s="9">
         <v>1169.9175</v>
@@ -1513,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" hidden="1">
@@ -1532,7 +1552,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" hidden="1">
       <c r="A39" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" s="9">
         <v>1189.9675</v>
@@ -1546,7 +1566,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" hidden="1">
       <c r="A40" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="9">
         <v>1423.55</v>
@@ -1574,7 +1594,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" hidden="1">
       <c r="A42" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B42" s="9">
         <v>1053.6275000000001</v>
@@ -1585,12 +1605,12 @@
         <v>0</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" hidden="1">
       <c r="A43" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="9">
         <v>1072.675</v>
@@ -1604,7 +1624,7 @@
     </row>
     <row r="44" spans="1:5" ht="15">
       <c r="A44" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="9">
         <v>1092.7249999999999</v>
@@ -1617,12 +1637,12 @@
         <v>16390.875</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" hidden="1">
       <c r="A45" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45" s="9">
         <v>1014.53</v>
@@ -1636,7 +1656,7 @@
     </row>
     <row r="46" spans="1:5" ht="15" hidden="1">
       <c r="A46" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B46" s="9">
         <v>1072.675</v>
@@ -1645,26 +1665,30 @@
       <c r="D46" s="10"/>
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="1:5" ht="15" hidden="1">
+    <row r="47" spans="1:5" ht="15">
       <c r="A47" s="8" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="B47" s="9">
-        <v>1024.5550000000001</v>
-      </c>
-      <c r="C47" s="8"/>
+        <v>1077.6875</v>
+      </c>
+      <c r="C47" s="8">
+        <v>10</v>
+      </c>
       <c r="D47" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E47" s="8"/>
+        <f>B47*C47</f>
+        <v>10776.875</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="15" hidden="1">
       <c r="A48" s="8" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="B48" s="9">
-        <v>1101.7474999999999</v>
+        <v>1024.5550000000001</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="10">
@@ -1673,44 +1697,44 @@
       </c>
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="1:5" ht="15">
+    <row r="49" spans="1:5" ht="15" hidden="1">
       <c r="A49" s="8" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B49" s="9">
+        <v>1101.7474999999999</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="1:5" ht="15">
+      <c r="A50" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="9">
         <v>1072.675</v>
       </c>
-      <c r="C49" s="8">
-        <v>10</v>
-      </c>
-      <c r="D49" s="10">
-        <f t="shared" si="0"/>
-        <v>10726.75</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15" hidden="1">
-      <c r="A50" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B50" s="9">
-        <v>1297.2349999999999</v>
-      </c>
-      <c r="C50" s="8"/>
+      <c r="C50" s="8">
+        <v>15</v>
+      </c>
       <c r="D50" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E50" s="8"/>
+        <v>16090.125</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="15" hidden="1">
       <c r="A51" s="8" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="B51" s="9">
-        <v>11964.8375</v>
+        <v>1297.2349999999999</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="10">
@@ -1721,10 +1745,10 @@
     </row>
     <row r="52" spans="1:5" ht="15" hidden="1">
       <c r="A52" s="8" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="B52" s="9">
-        <v>5607.9849999999997</v>
+        <v>11964.8375</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="10">
@@ -1735,38 +1759,38 @@
     </row>
     <row r="53" spans="1:5" ht="15" hidden="1">
       <c r="A53" s="8" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="B53" s="9">
-        <v>5183.9274999999998</v>
+        <v>5607.9849999999997</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="10">
-        <f t="shared" ref="D53:D73" si="2">C53*B53</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" ht="15" hidden="1">
       <c r="A54" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B54" s="9">
-        <v>5455.6049999999996</v>
+        <v>5183.9274999999998</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D54:D75" si="2">C54*B54</f>
         <v>0</v>
       </c>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" ht="15" hidden="1">
       <c r="A55" s="8" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="B55" s="9">
-        <v>4526.2875000000004</v>
+        <v>5455.6049999999996</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="10">
@@ -1777,10 +1801,10 @@
     </row>
     <row r="56" spans="1:5" ht="15" hidden="1">
       <c r="A56" s="8" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="B56" s="9">
-        <v>5510.7425000000003</v>
+        <v>4526.2875000000004</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="10">
@@ -1791,40 +1815,42 @@
     </row>
     <row r="57" spans="1:5" ht="15" hidden="1">
       <c r="A57" s="8" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B57" s="9">
-        <v>4896.21</v>
+        <v>5510.7425000000003</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E57" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15" hidden="1">
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:5" ht="15">
       <c r="A58" s="8" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B58" s="9">
-        <v>5150.8450000000003</v>
-      </c>
-      <c r="C58" s="8"/>
+        <v>4896.21</v>
+      </c>
+      <c r="C58" s="8">
+        <v>2</v>
+      </c>
       <c r="D58" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E58" s="8"/>
+        <v>9792.42</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="59" spans="1:5" ht="15" hidden="1">
       <c r="A59" s="8" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B59" s="9">
-        <v>4973.4025000000001</v>
+        <v>5150.8450000000003</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="10">
@@ -1835,10 +1861,10 @@
     </row>
     <row r="60" spans="1:5" ht="15" hidden="1">
       <c r="A60" s="8" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B60" s="9">
-        <v>4701.7299999999996</v>
+        <v>4973.4025000000001</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="10">
@@ -1849,52 +1875,52 @@
     </row>
     <row r="61" spans="1:5" ht="15" hidden="1">
       <c r="A61" s="8" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="B61" s="9">
-        <v>5940.8149999999996</v>
+        <v>4701.7299999999996</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="10">
-        <f t="shared" ref="D61:D62" si="3">C61*B61</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" ht="15" hidden="1">
       <c r="A62" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B62" s="9">
-        <v>5257.11</v>
+        <v>5940.8149999999996</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D62:D63" si="3">C62*B62</f>
         <v>0</v>
       </c>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" ht="15" hidden="1">
       <c r="A63" s="8" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="B63" s="9">
-        <v>3556.87</v>
+        <v>5257.11</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" ht="15" hidden="1">
       <c r="A64" s="8" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B64" s="9">
-        <v>3471.6574999999998</v>
+        <v>3556.87</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="10">
@@ -1903,12 +1929,12 @@
       </c>
       <c r="E64" s="8"/>
     </row>
-    <row r="65" spans="1:9" ht="15" hidden="1">
+    <row r="65" spans="1:5" ht="15" hidden="1">
       <c r="A65" s="8" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="B65" s="9">
-        <v>3257.1224999999999</v>
+        <v>3471.6574999999998</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="10">
@@ -1917,44 +1943,44 @@
       </c>
       <c r="E65" s="8"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:5" ht="15" hidden="1">
       <c r="A66" s="8" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B66" s="9">
-        <v>4389.9475000000002</v>
-      </c>
-      <c r="C66" s="8">
-        <v>2</v>
-      </c>
+        <v>3257.1224999999999</v>
+      </c>
+      <c r="C66" s="8"/>
       <c r="D66" s="10">
         <f t="shared" si="2"/>
-        <v>8779.8950000000004</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="15" hidden="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" spans="1:5" ht="15">
       <c r="A67" s="8" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B67" s="9">
-        <v>3618.0225</v>
-      </c>
-      <c r="C67" s="8"/>
+        <v>4389.9475000000002</v>
+      </c>
+      <c r="C67" s="8">
+        <v>5</v>
+      </c>
       <c r="D67" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E67" s="8"/>
-    </row>
-    <row r="68" spans="1:9" ht="15" hidden="1">
+        <v>21949.737500000003</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" hidden="1">
       <c r="A68" s="8" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="B68" s="9">
-        <v>3530.8049999999998</v>
+        <v>3618.0225</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="10">
@@ -1963,12 +1989,12 @@
       </c>
       <c r="E68" s="8"/>
     </row>
-    <row r="69" spans="1:9" ht="15" hidden="1">
+    <row r="69" spans="1:5" ht="15" hidden="1">
       <c r="A69" s="8" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="B69" s="9">
-        <v>4507.24</v>
+        <v>3530.8049999999998</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="10">
@@ -1977,12 +2003,12 @@
       </c>
       <c r="E69" s="8"/>
     </row>
-    <row r="70" spans="1:9" ht="15" hidden="1">
+    <row r="70" spans="1:5" ht="15" hidden="1">
       <c r="A70" s="8" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B70" s="9">
-        <v>4408.9949999999999</v>
+        <v>4507.24</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="10">
@@ -1991,12 +2017,12 @@
       </c>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="1:9" ht="15" hidden="1">
+    <row r="71" spans="1:5" ht="15" hidden="1">
       <c r="A71" s="8" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B71" s="9">
-        <v>3979.9250000000002</v>
+        <v>4408.9949999999999</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="10">
@@ -2005,12 +2031,12 @@
       </c>
       <c r="E71" s="8"/>
     </row>
-    <row r="72" spans="1:9" ht="15" hidden="1">
+    <row r="72" spans="1:5" ht="15" hidden="1">
       <c r="A72" s="8" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B72" s="9">
-        <v>4115.2624999999998</v>
+        <v>3979.9250000000002</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="10">
@@ -2019,12 +2045,12 @@
       </c>
       <c r="E72" s="8"/>
     </row>
-    <row r="73" spans="1:9" ht="15" hidden="1">
+    <row r="73" spans="1:5" ht="15" hidden="1">
       <c r="A73" s="8" t="s">
         <v>75</v>
       </c>
       <c r="B73" s="9">
-        <v>8599.4449999999997</v>
+        <v>4115.2624999999998</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="10">
@@ -2033,136 +2059,168 @@
       </c>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="1:9" s="2" customFormat="1" ht="15">
-      <c r="A74" s="37" t="s">
+    <row r="74" spans="1:5" ht="15">
+      <c r="A74" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" s="9">
+        <v>1219.04</v>
+      </c>
+      <c r="C74" s="8">
+        <v>40</v>
+      </c>
+      <c r="D74" s="10">
+        <f>B74*C74</f>
+        <v>48761.599999999999</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" hidden="1">
+      <c r="A75" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="9">
+        <v>8599.4449999999997</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="8"/>
+    </row>
+    <row r="76" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A76" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B74" s="37"/>
-      <c r="C74" s="24">
-        <f>SUM(C5:C73)</f>
-        <v>202</v>
-      </c>
-      <c r="D74" s="25">
-        <f>SUM(D5:D73)</f>
-        <v>207540.95749999999</v>
-      </c>
-      <c r="E74" s="24"/>
-    </row>
-    <row r="75" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A75" s="3"/>
-    </row>
-    <row r="76" spans="1:9" s="22" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A76" s="39"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="21"/>
-    </row>
-    <row r="77" spans="1:9" s="22" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A77" s="23"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="21"/>
-    </row>
-    <row r="78" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A78" s="13"/>
-      <c r="B78" s="38" t="s">
+      <c r="B76" s="37"/>
+      <c r="C76" s="24">
+        <f>SUM(C5:C75)</f>
+        <v>217</v>
+      </c>
+      <c r="D76" s="25">
+        <f>SUM(D5:D75)</f>
+        <v>309514.85750000004</v>
+      </c>
+      <c r="E76" s="24"/>
+    </row>
+    <row r="77" spans="1:5" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" s="22" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A78" s="39"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="21"/>
+    </row>
+    <row r="79" spans="1:5" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A79" s="23"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="21"/>
+    </row>
+    <row r="80" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A80" s="13"/>
+      <c r="B80" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C78" s="38"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="14"/>
-    </row>
-    <row r="79" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A79" s="15"/>
-      <c r="B79" s="16" t="s">
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="14"/>
+    </row>
+    <row r="81" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A81" s="15"/>
+      <c r="B81" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C81" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D79" s="16" t="s">
+      <c r="D81" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E79" s="14"/>
-      <c r="I79" s="17"/>
-    </row>
-    <row r="80" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A80" s="18"/>
-      <c r="B80" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C80" s="29"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="14"/>
-    </row>
-    <row r="81" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A81" s="18"/>
-      <c r="B81" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C81" s="29">
-        <v>140000</v>
-      </c>
-      <c r="D81" s="8"/>
       <c r="E81" s="14"/>
-    </row>
-    <row r="82" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="I81" s="17"/>
+    </row>
+    <row r="82" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A82" s="18"/>
       <c r="B82" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C82" s="29"/>
       <c r="D82" s="8"/>
       <c r="E82" s="14"/>
     </row>
-    <row r="83" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="83" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A83" s="18"/>
       <c r="B83" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C83" s="29"/>
+        <v>22</v>
+      </c>
+      <c r="C83" s="29">
+        <v>350000</v>
+      </c>
       <c r="D83" s="8"/>
       <c r="E83" s="14"/>
     </row>
-    <row r="84" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="84" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A84" s="18"/>
       <c r="B84" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C84" s="29"/>
       <c r="D84" s="8"/>
       <c r="E84" s="14"/>
     </row>
-    <row r="85" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
+    <row r="85" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A85" s="18"/>
       <c r="B85" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C85" s="29"/>
       <c r="D85" s="8"/>
       <c r="E85" s="14"/>
     </row>
-    <row r="86" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A86" s="15"/>
-      <c r="B86" s="19" t="s">
+    <row r="86" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A86" s="18"/>
+      <c r="B86" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="29"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="14"/>
+    </row>
+    <row r="87" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A87" s="18"/>
+      <c r="B87" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" s="29"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="14"/>
+    </row>
+    <row r="88" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A88" s="15"/>
+      <c r="B88" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C86" s="30">
-        <f>SUM(C80:C85)</f>
-        <v>140000</v>
-      </c>
-      <c r="D86" s="20"/>
-      <c r="E86" s="14"/>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="3"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
+      <c r="C88" s="30">
+        <f>SUM(C82:C87)</f>
+        <v>350000</v>
+      </c>
+      <c r="D88" s="20"/>
+      <c r="E88" s="14"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="3"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:E74">
+  <autoFilter ref="A4:E76">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2172,9 +2230,9 @@
   <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="A78:D78"/>
     <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/June/Others/Requisition of Tulip-2.xlsx
+++ b/June/Others/Requisition of Tulip-2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="102">
   <si>
     <t>Model Name</t>
   </si>
@@ -124,9 +124,6 @@
     <t>D39</t>
   </si>
   <si>
-    <t>B22</t>
-  </si>
-  <si>
     <t>BL75</t>
   </si>
   <si>
@@ -277,9 +274,6 @@
     <t>v141</t>
   </si>
   <si>
-    <t>Black=60 &amp; Black_Red=20</t>
-  </si>
-  <si>
     <t>Red</t>
   </si>
   <si>
@@ -322,7 +316,13 @@
     <t xml:space="preserve">Gold </t>
   </si>
   <si>
-    <t>Gold &amp; Black</t>
+    <t>B12+</t>
+  </si>
+  <si>
+    <t>Gold=60,White=20</t>
+  </si>
+  <si>
+    <t>Black/Black_Blue/Black_red</t>
   </si>
 </sst>
 </file>
@@ -975,7 +975,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F83" sqref="F83"/>
+      <selection pane="bottomRight" activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -990,7 +990,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A1" s="31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -999,7 +999,7 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A2" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -1008,17 +1008,17 @@
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" ht="15">
       <c r="A3" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="12.75">
@@ -1051,12 +1051,12 @@
         <v>0</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" hidden="1">
       <c r="A6" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="9">
         <v>789.97</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="7" spans="1:5" ht="15" hidden="1">
       <c r="A7" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="9">
         <v>779.94500000000005</v>
@@ -1082,23 +1082,27 @@
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="15" hidden="1">
+    <row r="8" spans="1:5" ht="15">
       <c r="A8" s="8" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="B8" s="9">
-        <v>774.9325</v>
-      </c>
-      <c r="C8" s="8"/>
+        <v>760.9</v>
+      </c>
+      <c r="C8" s="8">
+        <v>200</v>
+      </c>
       <c r="D8" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="8"/>
+        <f>C8*B8</f>
+        <v>152180</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="15" hidden="1">
       <c r="A9" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="9">
         <v>769.92</v>
@@ -1112,7 +1116,7 @@
     </row>
     <row r="10" spans="1:5" ht="15" hidden="1">
       <c r="A10" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B10" s="9">
         <v>896.24</v>
@@ -1123,28 +1127,30 @@
         <v>0</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A11" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="9">
         <v>896.23500000000001</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="8">
+        <v>40</v>
+      </c>
       <c r="D11" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35849.4</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" hidden="1">
       <c r="A12" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="9">
         <v>868.16499999999996</v>
@@ -1156,40 +1162,36 @@
       </c>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" ht="15">
+    <row r="13" spans="1:5" ht="15" hidden="1">
       <c r="A13" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="9">
         <v>901.24749999999995</v>
       </c>
-      <c r="C13" s="8">
-        <v>10</v>
-      </c>
+      <c r="C13" s="8"/>
       <c r="D13" s="10">
         <f t="shared" si="0"/>
-        <v>9012.4749999999985</v>
+        <v>0</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" hidden="1">
       <c r="A14" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="9">
         <v>858.14</v>
       </c>
-      <c r="C14" s="8">
-        <v>10</v>
-      </c>
+      <c r="C14" s="8"/>
       <c r="D14" s="10">
         <f t="shared" si="0"/>
-        <v>8581.4</v>
+        <v>0</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
@@ -1208,7 +1210,7 @@
     </row>
     <row r="16" spans="1:5" ht="15" hidden="1">
       <c r="A16" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="9">
         <v>946.36</v>
@@ -1220,22 +1222,20 @@
       </c>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" ht="15">
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A17" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="9">
         <v>980.44500000000005</v>
       </c>
-      <c r="C17" s="8">
-        <v>60</v>
-      </c>
+      <c r="C17" s="8"/>
       <c r="D17" s="12">
         <f>C17*B17</f>
-        <v>58826.700000000004</v>
+        <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" hidden="1">
@@ -1251,30 +1251,30 @@
         <v>0</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15">
       <c r="A19" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="9">
         <v>1140.845</v>
       </c>
       <c r="C19" s="8">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D19" s="12">
         <f>C19*B19</f>
-        <v>45633.8</v>
+        <v>91267.6</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A20" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="9">
         <v>936.34</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="22" spans="1:5" ht="15" hidden="1">
       <c r="A22" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="9">
         <v>1014.53</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="23" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A23" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="9">
         <v>1159.8924999999999</v>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" hidden="1">
@@ -1346,7 +1346,7 @@
     </row>
     <row r="25" spans="1:5" ht="15" hidden="1">
       <c r="A25" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" s="9">
         <v>2710.76</v>
@@ -1357,12 +1357,12 @@
         <v>0</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" hidden="1">
       <c r="A26" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="9">
         <v>6397.96</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="27" spans="1:5" ht="15" hidden="1">
       <c r="A27" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="9">
         <v>5158.8649999999998</v>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="28" spans="1:5" ht="15" hidden="1">
       <c r="A28" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" s="9">
         <v>5334.3029999999999</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="30" spans="1:5" ht="15" hidden="1">
       <c r="A30" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" s="9">
         <v>5607.9849999999997</v>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="31" spans="1:5" ht="15" hidden="1">
       <c r="A31" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="9">
         <v>5793.4475000000002</v>
@@ -1443,12 +1443,12 @@
         <v>0</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" hidden="1">
       <c r="A32" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="9">
         <v>7714.2375000000002</v>
@@ -1474,27 +1474,25 @@
       </c>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="1:5" ht="15">
+    <row r="34" spans="1:5" ht="15" hidden="1">
       <c r="A34" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34" s="9">
         <v>6369.8850000000002</v>
       </c>
-      <c r="C34" s="8">
-        <v>10</v>
-      </c>
+      <c r="C34" s="8"/>
       <c r="D34" s="10">
         <f t="shared" si="0"/>
-        <v>63698.850000000006</v>
+        <v>0</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" hidden="1">
       <c r="A35" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="9">
         <v>8967.36</v>
@@ -1508,7 +1506,7 @@
     </row>
     <row r="36" spans="1:5" ht="15" hidden="1">
       <c r="A36" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" s="9">
         <v>8134.2849999999999</v>
@@ -1522,7 +1520,7 @@
     </row>
     <row r="37" spans="1:5" ht="15" hidden="1">
       <c r="A37" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" s="9">
         <v>1169.9175</v>
@@ -1533,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" hidden="1">
@@ -1552,7 +1550,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" hidden="1">
       <c r="A39" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="9">
         <v>1189.9675</v>
@@ -1605,12 +1603,12 @@
         <v>0</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" hidden="1">
       <c r="A43" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="9">
         <v>1072.675</v>
@@ -1622,27 +1620,25 @@
       </c>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="1:5" ht="15">
+    <row r="44" spans="1:5" ht="15" hidden="1">
       <c r="A44" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="9">
         <v>1092.7249999999999</v>
       </c>
-      <c r="C44" s="8">
-        <v>15</v>
-      </c>
+      <c r="C44" s="8"/>
       <c r="D44" s="10">
         <f t="shared" si="0"/>
-        <v>16390.875</v>
+        <v>0</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" hidden="1">
       <c r="A45" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45" s="9">
         <v>1014.53</v>
@@ -1656,7 +1652,7 @@
     </row>
     <row r="46" spans="1:5" ht="15" hidden="1">
       <c r="A46" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B46" s="9">
         <v>1072.675</v>
@@ -1665,27 +1661,25 @@
       <c r="D46" s="10"/>
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="1:5" ht="15">
+    <row r="47" spans="1:5" ht="15" hidden="1">
       <c r="A47" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B47" s="9">
         <v>1077.6875</v>
       </c>
-      <c r="C47" s="8">
-        <v>10</v>
-      </c>
+      <c r="C47" s="8"/>
       <c r="D47" s="10">
         <f>B47*C47</f>
-        <v>10776.875</v>
+        <v>0</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" hidden="1">
       <c r="A48" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B48" s="9">
         <v>1024.5550000000001</v>
@@ -1699,7 +1693,7 @@
     </row>
     <row r="49" spans="1:5" ht="15" hidden="1">
       <c r="A49" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B49" s="9">
         <v>1101.7474999999999</v>
@@ -1711,27 +1705,25 @@
       </c>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="1:5" ht="15">
+    <row r="50" spans="1:5" ht="15" hidden="1">
       <c r="A50" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="9">
         <v>1072.675</v>
       </c>
-      <c r="C50" s="8">
-        <v>15</v>
-      </c>
+      <c r="C50" s="8"/>
       <c r="D50" s="10">
         <f t="shared" si="0"/>
-        <v>16090.125</v>
+        <v>0</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" hidden="1">
       <c r="A51" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B51" s="9">
         <v>1297.2349999999999</v>
@@ -1759,7 +1751,7 @@
     </row>
     <row r="53" spans="1:5" ht="15" hidden="1">
       <c r="A53" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B53" s="9">
         <v>5607.9849999999997</v>
@@ -1801,7 +1793,7 @@
     </row>
     <row r="56" spans="1:5" ht="15" hidden="1">
       <c r="A56" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B56" s="9">
         <v>4526.2875000000004</v>
@@ -1827,27 +1819,25 @@
       </c>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="1:5" ht="15">
+    <row r="58" spans="1:5" ht="15" hidden="1">
       <c r="A58" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B58" s="9">
         <v>4896.21</v>
       </c>
-      <c r="C58" s="8">
-        <v>2</v>
-      </c>
+      <c r="C58" s="8"/>
       <c r="D58" s="10">
         <f t="shared" si="2"/>
-        <v>9792.42</v>
+        <v>0</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15" hidden="1">
       <c r="A59" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B59" s="9">
         <v>5150.8450000000003</v>
@@ -1861,7 +1851,7 @@
     </row>
     <row r="60" spans="1:5" ht="15" hidden="1">
       <c r="A60" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" s="9">
         <v>4973.4025000000001</v>
@@ -1875,7 +1865,7 @@
     </row>
     <row r="61" spans="1:5" ht="15" hidden="1">
       <c r="A61" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B61" s="9">
         <v>4701.7299999999996</v>
@@ -1889,7 +1879,7 @@
     </row>
     <row r="62" spans="1:5" ht="15" hidden="1">
       <c r="A62" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B62" s="9">
         <v>5940.8149999999996</v>
@@ -1903,7 +1893,7 @@
     </row>
     <row r="63" spans="1:5" ht="15" hidden="1">
       <c r="A63" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B63" s="9">
         <v>5257.11</v>
@@ -1931,7 +1921,7 @@
     </row>
     <row r="65" spans="1:5" ht="15" hidden="1">
       <c r="A65" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B65" s="9">
         <v>3471.6574999999998</v>
@@ -1945,7 +1935,7 @@
     </row>
     <row r="66" spans="1:5" ht="15" hidden="1">
       <c r="A66" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66" s="9">
         <v>3257.1224999999999</v>
@@ -1957,27 +1947,25 @@
       </c>
       <c r="E66" s="8"/>
     </row>
-    <row r="67" spans="1:5" ht="15">
+    <row r="67" spans="1:5" ht="15" hidden="1">
       <c r="A67" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B67" s="9">
         <v>4389.9475000000002</v>
       </c>
-      <c r="C67" s="8">
-        <v>5</v>
-      </c>
+      <c r="C67" s="8"/>
       <c r="D67" s="10">
         <f t="shared" si="2"/>
-        <v>21949.737500000003</v>
+        <v>0</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" hidden="1">
       <c r="A68" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B68" s="9">
         <v>3618.0225</v>
@@ -1991,7 +1979,7 @@
     </row>
     <row r="69" spans="1:5" ht="15" hidden="1">
       <c r="A69" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B69" s="9">
         <v>3530.8049999999998</v>
@@ -2019,7 +2007,7 @@
     </row>
     <row r="71" spans="1:5" ht="15" hidden="1">
       <c r="A71" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="9">
         <v>4408.9949999999999</v>
@@ -2033,7 +2021,7 @@
     </row>
     <row r="72" spans="1:5" ht="15" hidden="1">
       <c r="A72" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B72" s="9">
         <v>3979.9250000000002</v>
@@ -2047,7 +2035,7 @@
     </row>
     <row r="73" spans="1:5" ht="15" hidden="1">
       <c r="A73" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" s="9">
         <v>4115.2624999999998</v>
@@ -2059,27 +2047,25 @@
       </c>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="1:5" ht="15">
+    <row r="74" spans="1:5" ht="15" hidden="1">
       <c r="A74" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B74" s="9">
         <v>1219.04</v>
       </c>
-      <c r="C74" s="8">
-        <v>40</v>
-      </c>
+      <c r="C74" s="8"/>
       <c r="D74" s="10">
         <f>B74*C74</f>
-        <v>48761.599999999999</v>
+        <v>0</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15" hidden="1">
       <c r="A75" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="9">
         <v>8599.4449999999997</v>
@@ -2098,11 +2084,11 @@
       <c r="B76" s="37"/>
       <c r="C76" s="24">
         <f>SUM(C5:C75)</f>
-        <v>217</v>
+        <v>320</v>
       </c>
       <c r="D76" s="25">
         <f>SUM(D5:D75)</f>
-        <v>309514.85750000004</v>
+        <v>279297</v>
       </c>
       <c r="E76" s="24"/>
     </row>
@@ -2161,7 +2147,7 @@
         <v>22</v>
       </c>
       <c r="C83" s="29">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="14"/>
@@ -2209,7 +2195,7 @@
       </c>
       <c r="C88" s="30">
         <f>SUM(C82:C87)</f>
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="D88" s="20"/>
       <c r="E88" s="14"/>

--- a/June/Others/Requisition of Tulip-2.xlsx
+++ b/June/Others/Requisition of Tulip-2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="102">
   <si>
     <t>Model Name</t>
   </si>
@@ -310,9 +310,6 @@
     <t>L55</t>
   </si>
   <si>
-    <t>24.06.19</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gold </t>
   </si>
   <si>
@@ -323,6 +320,9 @@
   </si>
   <si>
     <t>Black/Black_Blue/Black_red</t>
+  </si>
+  <si>
+    <t>26.06.19</t>
   </si>
 </sst>
 </file>
@@ -975,7 +975,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G92" sqref="G92"/>
+      <selection pane="bottomRight" activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1018,7 +1018,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="12.75">
@@ -1082,37 +1082,39 @@
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="15">
+    <row r="8" spans="1:5" ht="15" hidden="1">
       <c r="A8" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="9">
         <v>760.9</v>
       </c>
-      <c r="C8" s="8">
-        <v>200</v>
-      </c>
+      <c r="C8" s="8"/>
       <c r="D8" s="10">
         <f>C8*B8</f>
-        <v>152180</v>
+        <v>0</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" hidden="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15">
       <c r="A9" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="9">
         <v>769.92</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="8">
+        <v>40</v>
+      </c>
       <c r="D9" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="8"/>
+        <v>30796.799999999999</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="15" hidden="1">
       <c r="A10" s="8" t="s">
@@ -1145,7 +1147,7 @@
         <v>35849.4</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" hidden="1">
@@ -1162,17 +1164,19 @@
       </c>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" ht="15" hidden="1">
+    <row r="13" spans="1:5" ht="15">
       <c r="A13" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="9">
         <v>901.24749999999995</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="8">
+        <v>10</v>
+      </c>
       <c r="D13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9012.4749999999985</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>85</v>
@@ -1262,14 +1266,14 @@
         <v>1140.845</v>
       </c>
       <c r="C19" s="8">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="D19" s="12">
         <f>C19*B19</f>
-        <v>91267.6</v>
+        <v>45633.8</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
@@ -1314,17 +1318,19 @@
       </c>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A23" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="9">
         <v>1159.8924999999999</v>
       </c>
-      <c r="C23" s="8"/>
+      <c r="C23" s="8">
+        <v>20</v>
+      </c>
       <c r="D23" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23197.85</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>89</v>
@@ -1344,17 +1350,19 @@
       </c>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:5" ht="15" hidden="1">
+    <row r="25" spans="1:5" ht="15">
       <c r="A25" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B25" s="9">
         <v>2710.76</v>
       </c>
-      <c r="C25" s="8"/>
+      <c r="C25" s="8">
+        <v>5</v>
+      </c>
       <c r="D25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13553.800000000001</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>87</v>
@@ -1487,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" hidden="1">
@@ -1518,17 +1526,19 @@
       </c>
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="1:5" ht="15" hidden="1">
+    <row r="37" spans="1:5" ht="15">
       <c r="A37" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B37" s="9">
         <v>1169.9175</v>
       </c>
-      <c r="C37" s="8"/>
+      <c r="C37" s="8">
+        <v>10</v>
+      </c>
       <c r="D37" s="10">
         <f t="shared" ref="D37" si="1">C37*B37</f>
-        <v>0</v>
+        <v>11699.174999999999</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>88</v>
@@ -1620,17 +1630,19 @@
       </c>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="1:5" ht="15" hidden="1">
+    <row r="44" spans="1:5" ht="15">
       <c r="A44" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="9">
         <v>1092.7249999999999</v>
       </c>
-      <c r="C44" s="8"/>
+      <c r="C44" s="8">
+        <v>10</v>
+      </c>
       <c r="D44" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10927.25</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>85</v>
@@ -1947,17 +1959,19 @@
       </c>
       <c r="E66" s="8"/>
     </row>
-    <row r="67" spans="1:5" ht="15" hidden="1">
+    <row r="67" spans="1:5" ht="15">
       <c r="A67" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B67" s="9">
         <v>4389.9475000000002</v>
       </c>
-      <c r="C67" s="8"/>
+      <c r="C67" s="8">
+        <v>5</v>
+      </c>
       <c r="D67" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21949.737500000003</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>87</v>
@@ -2084,11 +2098,11 @@
       <c r="B76" s="37"/>
       <c r="C76" s="24">
         <f>SUM(C5:C75)</f>
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="D76" s="25">
         <f>SUM(D5:D75)</f>
-        <v>279297</v>
+        <v>202620.28749999998</v>
       </c>
       <c r="E76" s="24"/>
     </row>
@@ -2147,7 +2161,7 @@
         <v>22</v>
       </c>
       <c r="C83" s="29">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="14"/>
@@ -2195,7 +2209,7 @@
       </c>
       <c r="C88" s="30">
         <f>SUM(C82:C87)</f>
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="D88" s="20"/>
       <c r="E88" s="14"/>

--- a/June/Others/Requisition of Tulip-2.xlsx
+++ b/June/Others/Requisition of Tulip-2.xlsx
@@ -316,13 +316,37 @@
     <t>B12+</t>
   </si>
   <si>
-    <t>Gold=60,White=20</t>
-  </si>
-  <si>
-    <t>Black/Black_Blue/Black_red</t>
-  </si>
-  <si>
-    <t>26.06.19</t>
+    <t>27.06.19</t>
+  </si>
+  <si>
+    <r>
+      <t>Black &amp; Blue/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NOT RED</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Black/Black_Blue/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOT RED</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -334,7 +358,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,6 +412,13 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -975,7 +1006,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E85" sqref="E85"/>
+      <selection pane="bottomRight" activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1018,7 +1049,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="12.75">
@@ -1082,35 +1113,35 @@
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="15" hidden="1">
+    <row r="8" spans="1:5" ht="15">
       <c r="A8" s="8" t="s">
         <v>98</v>
       </c>
       <c r="B8" s="9">
         <v>760.9</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="8">
+        <v>160</v>
+      </c>
       <c r="D8" s="10">
         <f>C8*B8</f>
-        <v>0</v>
+        <v>121744</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" hidden="1">
       <c r="A9" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="9">
         <v>769.92</v>
       </c>
-      <c r="C9" s="8">
-        <v>40</v>
-      </c>
+      <c r="C9" s="8"/>
       <c r="D9" s="10">
         <f t="shared" si="0"/>
-        <v>30796.799999999999</v>
+        <v>0</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>89</v>
@@ -1132,19 +1163,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="5" customFormat="1" ht="15">
+    <row r="11" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A11" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="9">
         <v>896.23500000000001</v>
       </c>
-      <c r="C11" s="8">
-        <v>40</v>
-      </c>
+      <c r="C11" s="8"/>
       <c r="D11" s="12">
         <f t="shared" si="0"/>
-        <v>35849.4</v>
+        <v>0</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>90</v>
@@ -1164,38 +1193,38 @@
       </c>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" ht="15">
+    <row r="13" spans="1:5" ht="15" hidden="1">
       <c r="A13" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="9">
         <v>901.24749999999995</v>
       </c>
-      <c r="C13" s="8">
-        <v>10</v>
-      </c>
+      <c r="C13" s="8"/>
       <c r="D13" s="10">
         <f t="shared" si="0"/>
-        <v>9012.4749999999985</v>
+        <v>0</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" hidden="1">
+    <row r="14" spans="1:5" ht="15">
       <c r="A14" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B14" s="9">
         <v>858.14</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="8">
+        <v>140</v>
+      </c>
       <c r="D14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>120139.59999999999</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
@@ -1266,14 +1295,14 @@
         <v>1140.845</v>
       </c>
       <c r="C19" s="8">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D19" s="12">
         <f>C19*B19</f>
-        <v>45633.8</v>
+        <v>11408.45</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
@@ -1318,19 +1347,17 @@
       </c>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" ht="15">
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A23" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="9">
         <v>1159.8924999999999</v>
       </c>
-      <c r="C23" s="8">
-        <v>20</v>
-      </c>
+      <c r="C23" s="8"/>
       <c r="D23" s="12">
         <f t="shared" si="0"/>
-        <v>23197.85</v>
+        <v>0</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>89</v>
@@ -1350,19 +1377,17 @@
       </c>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:5" ht="15">
+    <row r="25" spans="1:5" ht="15" hidden="1">
       <c r="A25" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B25" s="9">
         <v>2710.76</v>
       </c>
-      <c r="C25" s="8">
-        <v>5</v>
-      </c>
+      <c r="C25" s="8"/>
       <c r="D25" s="10">
         <f t="shared" si="0"/>
-        <v>13553.800000000001</v>
+        <v>0</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>87</v>
@@ -1482,17 +1507,19 @@
       </c>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="1:5" ht="15" hidden="1">
+    <row r="34" spans="1:5" ht="15">
       <c r="A34" s="8" t="s">
         <v>64</v>
       </c>
       <c r="B34" s="9">
         <v>6369.8850000000002</v>
       </c>
-      <c r="C34" s="8"/>
+      <c r="C34" s="8">
+        <v>20</v>
+      </c>
       <c r="D34" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>127397.70000000001</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>97</v>
@@ -1526,19 +1553,17 @@
       </c>
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="1:5" ht="15">
+    <row r="37" spans="1:5" ht="15" hidden="1">
       <c r="A37" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B37" s="9">
         <v>1169.9175</v>
       </c>
-      <c r="C37" s="8">
-        <v>10</v>
-      </c>
+      <c r="C37" s="8"/>
       <c r="D37" s="10">
         <f t="shared" ref="D37" si="1">C37*B37</f>
-        <v>11699.174999999999</v>
+        <v>0</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>88</v>
@@ -1630,19 +1655,17 @@
       </c>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="1:5" ht="15">
+    <row r="44" spans="1:5" ht="15" hidden="1">
       <c r="A44" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="9">
         <v>1092.7249999999999</v>
       </c>
-      <c r="C44" s="8">
-        <v>10</v>
-      </c>
+      <c r="C44" s="8"/>
       <c r="D44" s="10">
         <f t="shared" si="0"/>
-        <v>10927.25</v>
+        <v>0</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>85</v>
@@ -1959,19 +1982,17 @@
       </c>
       <c r="E66" s="8"/>
     </row>
-    <row r="67" spans="1:5" ht="15">
+    <row r="67" spans="1:5" ht="15" hidden="1">
       <c r="A67" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B67" s="9">
         <v>4389.9475000000002</v>
       </c>
-      <c r="C67" s="8">
-        <v>5</v>
-      </c>
+      <c r="C67" s="8"/>
       <c r="D67" s="10">
         <f t="shared" si="2"/>
-        <v>21949.737500000003</v>
+        <v>0</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>87</v>
@@ -2098,11 +2119,11 @@
       <c r="B76" s="37"/>
       <c r="C76" s="24">
         <f>SUM(C5:C75)</f>
-        <v>180</v>
+        <v>330</v>
       </c>
       <c r="D76" s="25">
         <f>SUM(D5:D75)</f>
-        <v>202620.28749999998</v>
+        <v>380689.75</v>
       </c>
       <c r="E76" s="24"/>
     </row>
@@ -2161,7 +2182,7 @@
         <v>22</v>
       </c>
       <c r="C83" s="29">
-        <v>200000</v>
+        <v>365000</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="14"/>
@@ -2209,7 +2230,7 @@
       </c>
       <c r="C88" s="30">
         <f>SUM(C82:C87)</f>
-        <v>200000</v>
+        <v>365000</v>
       </c>
       <c r="D88" s="20"/>
       <c r="E88" s="14"/>

--- a/June/Others/Requisition of Tulip-2.xlsx
+++ b/June/Others/Requisition of Tulip-2.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Daily Requisition" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Requisition'!$A$4:$E$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Requisition'!$A$4:$E$77</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="104">
   <si>
     <t>Model Name</t>
   </si>
@@ -121,9 +121,6 @@
     <t>BL100</t>
   </si>
   <si>
-    <t>D39</t>
-  </si>
-  <si>
     <t>BL75</t>
   </si>
   <si>
@@ -314,9 +311,6 @@
   </si>
   <si>
     <t>B12+</t>
-  </si>
-  <si>
-    <t>27.06.19</t>
   </si>
   <si>
     <r>
@@ -347,6 +341,18 @@
       </rPr>
       <t>NOT RED</t>
     </r>
+  </si>
+  <si>
+    <t>D41</t>
+  </si>
+  <si>
+    <t>D52+</t>
+  </si>
+  <si>
+    <t>30.06.19</t>
+  </si>
+  <si>
+    <t>Gold &amp; Black</t>
   </si>
 </sst>
 </file>
@@ -1000,13 +1006,13 @@
   <sheetPr filterMode="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I89" sqref="I89"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1021,7 +1027,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A1" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -1030,7 +1036,7 @@
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" ht="12.75">
       <c r="A2" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -1039,17 +1045,17 @@
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" ht="15">
       <c r="A3" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="12.75">
@@ -1082,26 +1088,26 @@
         <v>0</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" hidden="1">
       <c r="A6" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="9">
         <v>789.97</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="10">
-        <f t="shared" ref="D6:D53" si="0">C6*B6</f>
+        <f t="shared" ref="D6:D54" si="0">C6*B6</f>
         <v>0</v>
       </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="15" hidden="1">
       <c r="A7" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="9">
         <v>779.94500000000005</v>
@@ -1113,27 +1119,25 @@
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="15">
+    <row r="8" spans="1:5" ht="15" hidden="1">
       <c r="A8" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" s="9">
         <v>760.9</v>
       </c>
-      <c r="C8" s="8">
-        <v>160</v>
-      </c>
+      <c r="C8" s="8"/>
       <c r="D8" s="10">
         <f>C8*B8</f>
-        <v>121744</v>
+        <v>0</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" hidden="1">
       <c r="A9" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="9">
         <v>769.92</v>
@@ -1144,12 +1148,12 @@
         <v>0</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" hidden="1">
       <c r="A10" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" s="9">
         <v>896.24</v>
@@ -1160,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
@@ -1176,12 +1180,12 @@
         <v>0</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" hidden="1">
       <c r="A12" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="9">
         <v>868.16499999999996</v>
@@ -1206,25 +1210,23 @@
         <v>0</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" hidden="1">
       <c r="A14" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="9">
         <v>858.14</v>
       </c>
-      <c r="C14" s="8">
-        <v>140</v>
-      </c>
+      <c r="C14" s="8"/>
       <c r="D14" s="10">
         <f t="shared" si="0"/>
-        <v>120139.59999999999</v>
+        <v>0</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
@@ -1243,7 +1245,7 @@
     </row>
     <row r="16" spans="1:5" ht="15" hidden="1">
       <c r="A16" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="9">
         <v>946.36</v>
@@ -1268,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" hidden="1">
@@ -1284,58 +1286,60 @@
         <v>0</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15">
       <c r="A19" s="8" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="B19" s="9">
+        <v>1159.8900000000001</v>
+      </c>
+      <c r="C19" s="8">
+        <v>60</v>
+      </c>
+      <c r="D19" s="10">
+        <f>B19*C19</f>
+        <v>69593.400000000009</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" hidden="1">
+      <c r="A20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="9">
         <v>1140.845</v>
-      </c>
-      <c r="C19" s="8">
-        <v>10</v>
-      </c>
-      <c r="D19" s="12">
-        <f>C19*B19</f>
-        <v>11408.45</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
-      <c r="A20" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="9">
-        <v>936.34</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" hidden="1">
-      <c r="A21" s="8" t="s">
-        <v>34</v>
+        <f>C20*B20</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+      <c r="A21" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="B21" s="9">
-        <v>955.38250000000005</v>
+        <v>936.34</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="8"/>
+      <c r="D21" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5" ht="15" hidden="1">
       <c r="A22" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="9">
         <v>1014.53</v>
@@ -1347,72 +1351,74 @@
       </c>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
-      <c r="A23" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="9">
+    <row r="23" spans="1:5" ht="15">
+      <c r="A23" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="8">
+        <v>40</v>
+      </c>
+      <c r="D23" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+      <c r="A24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="9">
         <v>1159.8924999999999</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" hidden="1">
-      <c r="A24" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="9">
-        <v>2309.7600000000002</v>
-      </c>
       <c r="C24" s="8"/>
-      <c r="D24" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="8"/>
+      <c r="D24" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="15" hidden="1">
       <c r="A25" s="8" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="B25" s="9">
-        <v>2710.76</v>
+        <v>2309.7600000000002</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>87</v>
-      </c>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" ht="15" hidden="1">
       <c r="A26" s="8" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B26" s="9">
-        <v>6397.96</v>
+        <v>2710.76</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="8"/>
+      <c r="E26" s="11" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="15" hidden="1">
       <c r="A27" s="8" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B27" s="9">
-        <v>5158.8649999999998</v>
+        <v>6397.96</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="10">
@@ -1423,10 +1429,10 @@
     </row>
     <row r="28" spans="1:5" ht="15" hidden="1">
       <c r="A28" s="8" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="B28" s="9">
-        <v>5334.3029999999999</v>
+        <v>5158.8649999999998</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="10">
@@ -1437,10 +1443,10 @@
     </row>
     <row r="29" spans="1:5" ht="15" hidden="1">
       <c r="A29" s="8" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="B29" s="9">
-        <v>5819.5124999999998</v>
+        <v>5334.3029999999999</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="10">
@@ -1451,10 +1457,10 @@
     </row>
     <row r="30" spans="1:5" ht="15" hidden="1">
       <c r="A30" s="8" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="B30" s="9">
-        <v>5607.9849999999997</v>
+        <v>5819.5124999999998</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="10">
@@ -1465,86 +1471,84 @@
     </row>
     <row r="31" spans="1:5" ht="15" hidden="1">
       <c r="A31" s="8" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B31" s="9">
-        <v>5793.4475000000002</v>
+        <v>5607.9849999999997</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>91</v>
-      </c>
+      <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:5" ht="15" hidden="1">
       <c r="A32" s="8" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="B32" s="9">
-        <v>7714.2375000000002</v>
+        <v>5793.4475000000002</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="11"/>
+      <c r="E32" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="15" hidden="1">
       <c r="A33" s="8" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B33" s="9">
-        <v>7722.2574999999997</v>
+        <v>7714.2375000000002</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="1:5" ht="15">
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" hidden="1">
       <c r="A34" s="8" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="B34" s="9">
-        <v>6369.8850000000002</v>
-      </c>
-      <c r="C34" s="8">
-        <v>20</v>
-      </c>
+        <v>7722.2574999999997</v>
+      </c>
+      <c r="C34" s="8"/>
       <c r="D34" s="10">
         <f t="shared" si="0"/>
-        <v>127397.70000000001</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5" ht="15" hidden="1">
       <c r="A35" s="8" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B35" s="9">
-        <v>8967.36</v>
+        <v>6369.8850000000002</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="8"/>
+      <c r="E35" s="8" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="15" hidden="1">
       <c r="A36" s="8" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B36" s="9">
-        <v>8134.2849999999999</v>
+        <v>8967.36</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="10">
@@ -1555,40 +1559,40 @@
     </row>
     <row r="37" spans="1:5" ht="15" hidden="1">
       <c r="A37" s="8" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B37" s="9">
-        <v>1169.9175</v>
+        <v>8134.2849999999999</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="10">
-        <f t="shared" ref="D37" si="1">C37*B37</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>88</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" ht="15" hidden="1">
       <c r="A38" s="8" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B38" s="9">
-        <v>1199.9925000000001</v>
+        <v>1169.9175</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E38" s="8"/>
+        <f t="shared" ref="D38" si="1">C38*B38</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="15" hidden="1">
       <c r="A39" s="8" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B39" s="9">
-        <v>1189.9675</v>
+        <v>1199.9925000000001</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="10">
@@ -1599,10 +1603,10 @@
     </row>
     <row r="40" spans="1:5" ht="15" hidden="1">
       <c r="A40" s="8" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B40" s="9">
-        <v>1423.55</v>
+        <v>1189.9675</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="10">
@@ -1613,10 +1617,10 @@
     </row>
     <row r="41" spans="1:5" ht="15" hidden="1">
       <c r="A41" s="8" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B41" s="9">
-        <v>1435.58</v>
+        <v>1423.55</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="10">
@@ -1627,111 +1631,111 @@
     </row>
     <row r="42" spans="1:5" ht="15" hidden="1">
       <c r="A42" s="8" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B42" s="9">
-        <v>1053.6275000000001</v>
+        <v>1435.58</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>90</v>
-      </c>
+      <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5" ht="15" hidden="1">
       <c r="A43" s="8" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B43" s="9">
-        <v>1072.675</v>
+        <v>1053.6275000000001</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E43" s="8"/>
+      <c r="E43" s="8" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="15" hidden="1">
       <c r="A44" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B44" s="9">
-        <v>1092.7249999999999</v>
+        <v>1072.675</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E44" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5" ht="15" hidden="1">
       <c r="A45" s="8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B45" s="9">
-        <v>1014.53</v>
+        <v>1092.7249999999999</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E45" s="8"/>
+      <c r="E45" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="15" hidden="1">
       <c r="A46" s="8" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B46" s="9">
-        <v>1072.675</v>
+        <v>1014.53</v>
       </c>
       <c r="C46" s="8"/>
-      <c r="D46" s="10"/>
+      <c r="D46" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" ht="15" hidden="1">
       <c r="A47" s="8" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B47" s="9">
-        <v>1077.6875</v>
+        <v>1072.675</v>
       </c>
       <c r="C47" s="8"/>
-      <c r="D47" s="10">
-        <f>B47*C47</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5" ht="15" hidden="1">
       <c r="A48" s="8" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="B48" s="9">
-        <v>1024.5550000000001</v>
+        <v>1077.6875</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E48" s="8"/>
+        <f>B48*C48</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="15" hidden="1">
       <c r="A49" s="8" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="B49" s="9">
-        <v>1101.7474999999999</v>
+        <v>1024.5550000000001</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="10">
@@ -1742,40 +1746,40 @@
     </row>
     <row r="50" spans="1:5" ht="15" hidden="1">
       <c r="A50" s="8" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B50" s="9">
-        <v>1072.675</v>
+        <v>1101.7474999999999</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E50" s="8" t="s">
-        <v>85</v>
-      </c>
+      <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" ht="15" hidden="1">
       <c r="A51" s="8" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B51" s="9">
-        <v>1297.2349999999999</v>
+        <v>1072.675</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E51" s="8"/>
+      <c r="E51" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="15" hidden="1">
       <c r="A52" s="8" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="B52" s="9">
-        <v>11964.8375</v>
+        <v>1297.2349999999999</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="10">
@@ -1786,10 +1790,10 @@
     </row>
     <row r="53" spans="1:5" ht="15" hidden="1">
       <c r="A53" s="8" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="B53" s="9">
-        <v>5607.9849999999997</v>
+        <v>11964.8375</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="10">
@@ -1800,38 +1804,38 @@
     </row>
     <row r="54" spans="1:5" ht="15" hidden="1">
       <c r="A54" s="8" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B54" s="9">
-        <v>5183.9274999999998</v>
+        <v>5607.9849999999997</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="10">
-        <f t="shared" ref="D54:D75" si="2">C54*B54</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" ht="15" hidden="1">
       <c r="A55" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B55" s="9">
-        <v>5455.6049999999996</v>
+        <v>5183.9274999999998</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D55:D76" si="2">C55*B55</f>
         <v>0</v>
       </c>
       <c r="E55" s="8"/>
     </row>
     <row r="56" spans="1:5" ht="15" hidden="1">
       <c r="A56" s="8" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="B56" s="9">
-        <v>4526.2875000000004</v>
+        <v>5455.6049999999996</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="10">
@@ -1842,10 +1846,10 @@
     </row>
     <row r="57" spans="1:5" ht="15" hidden="1">
       <c r="A57" s="8" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B57" s="9">
-        <v>5510.7425000000003</v>
+        <v>4526.2875000000004</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="10">
@@ -1856,40 +1860,40 @@
     </row>
     <row r="58" spans="1:5" ht="15" hidden="1">
       <c r="A58" s="8" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B58" s="9">
-        <v>4896.21</v>
+        <v>5510.7425000000003</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E58" s="8" t="s">
-        <v>89</v>
-      </c>
+      <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" ht="15" hidden="1">
       <c r="A59" s="8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B59" s="9">
-        <v>5150.8450000000003</v>
+        <v>4896.21</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E59" s="8"/>
+      <c r="E59" s="8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="15" hidden="1">
       <c r="A60" s="8" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B60" s="9">
-        <v>4973.4025000000001</v>
+        <v>5150.8450000000003</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="10">
@@ -1900,10 +1904,10 @@
     </row>
     <row r="61" spans="1:5" ht="15" hidden="1">
       <c r="A61" s="8" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B61" s="9">
-        <v>4701.7299999999996</v>
+        <v>4973.4025000000001</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="10">
@@ -1914,52 +1918,52 @@
     </row>
     <row r="62" spans="1:5" ht="15" hidden="1">
       <c r="A62" s="8" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="B62" s="9">
-        <v>5940.8149999999996</v>
+        <v>4701.7299999999996</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="10">
-        <f t="shared" ref="D62:D63" si="3">C62*B62</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" ht="15" hidden="1">
       <c r="A63" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B63" s="9">
-        <v>5257.11</v>
+        <v>5940.8149999999996</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D63:D64" si="3">C63*B63</f>
         <v>0</v>
       </c>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" ht="15" hidden="1">
       <c r="A64" s="8" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="B64" s="9">
-        <v>3556.87</v>
+        <v>5257.11</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5" ht="15" hidden="1">
       <c r="A65" s="8" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B65" s="9">
-        <v>3471.6574999999998</v>
+        <v>3556.87</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="10">
@@ -1970,10 +1974,10 @@
     </row>
     <row r="66" spans="1:5" ht="15" hidden="1">
       <c r="A66" s="8" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="B66" s="9">
-        <v>3257.1224999999999</v>
+        <v>3471.6574999999998</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="10">
@@ -1984,40 +1988,40 @@
     </row>
     <row r="67" spans="1:5" ht="15" hidden="1">
       <c r="A67" s="8" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B67" s="9">
-        <v>4389.9475000000002</v>
+        <v>3257.1224999999999</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E67" s="8" t="s">
-        <v>87</v>
-      </c>
+      <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" ht="15" hidden="1">
       <c r="A68" s="8" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B68" s="9">
-        <v>3618.0225</v>
+        <v>4389.9475000000002</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E68" s="8"/>
+      <c r="E68" s="8" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="69" spans="1:5" ht="15" hidden="1">
       <c r="A69" s="8" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="B69" s="9">
-        <v>3530.8049999999998</v>
+        <v>3618.0225</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="10">
@@ -2028,10 +2032,10 @@
     </row>
     <row r="70" spans="1:5" ht="15" hidden="1">
       <c r="A70" s="8" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="B70" s="9">
-        <v>4507.24</v>
+        <v>3530.8049999999998</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="10">
@@ -2042,10 +2046,10 @@
     </row>
     <row r="71" spans="1:5" ht="15" hidden="1">
       <c r="A71" s="8" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B71" s="9">
-        <v>4408.9949999999999</v>
+        <v>4507.24</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="10">
@@ -2056,10 +2060,10 @@
     </row>
     <row r="72" spans="1:5" ht="15" hidden="1">
       <c r="A72" s="8" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B72" s="9">
-        <v>3979.9250000000002</v>
+        <v>4408.9949999999999</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="10">
@@ -2070,10 +2074,10 @@
     </row>
     <row r="73" spans="1:5" ht="15" hidden="1">
       <c r="A73" s="8" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B73" s="9">
-        <v>4115.2624999999998</v>
+        <v>3979.9250000000002</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="10">
@@ -2084,106 +2088,109 @@
     </row>
     <row r="74" spans="1:5" ht="15" hidden="1">
       <c r="A74" s="8" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B74" s="9">
-        <v>1219.04</v>
+        <v>4115.2624999999998</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="10">
-        <f>B74*C74</f>
-        <v>0</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>89</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" ht="15" hidden="1">
       <c r="A75" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B75" s="9">
-        <v>8599.4449999999997</v>
+        <v>1219.04</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="10">
+        <f>B75*C75</f>
+        <v>0</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15" hidden="1">
+      <c r="A76" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" s="9">
+        <v>8599.4449999999997</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E75" s="8"/>
-    </row>
-    <row r="76" spans="1:5" s="2" customFormat="1" ht="15">
-      <c r="A76" s="37" t="s">
+      <c r="E76" s="8"/>
+    </row>
+    <row r="77" spans="1:5" s="2" customFormat="1" ht="15">
+      <c r="A77" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B76" s="37"/>
-      <c r="C76" s="24">
-        <f>SUM(C5:C75)</f>
-        <v>330</v>
-      </c>
-      <c r="D76" s="25">
-        <f>SUM(D5:D75)</f>
-        <v>380689.75</v>
-      </c>
-      <c r="E76" s="24"/>
-    </row>
-    <row r="77" spans="1:5" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A77" s="3"/>
-    </row>
-    <row r="78" spans="1:5" s="22" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A78" s="39"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="21"/>
-    </row>
-    <row r="79" spans="1:5" s="22" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A79" s="23"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="24">
+        <f>SUM(C5:C76)</f>
+        <v>100</v>
+      </c>
+      <c r="D77" s="25">
+        <f>SUM(D5:D76)</f>
+        <v>69593.400000000009</v>
+      </c>
+      <c r="E77" s="24"/>
+    </row>
+    <row r="78" spans="1:5" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" s="22" customFormat="1" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A79" s="39"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="41"/>
       <c r="E79" s="21"/>
     </row>
-    <row r="80" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A80" s="13"/>
-      <c r="B80" s="38" t="s">
+    <row r="80" spans="1:5" s="22" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A80" s="23"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="21"/>
+    </row>
+    <row r="81" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A81" s="13"/>
+      <c r="B81" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="14"/>
-    </row>
-    <row r="81" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A81" s="15"/>
-      <c r="B81" s="16" t="s">
+      <c r="C81" s="38"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="14"/>
+    </row>
+    <row r="82" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A82" s="15"/>
+      <c r="B82" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C82" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D81" s="16" t="s">
+      <c r="D82" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E81" s="14"/>
-      <c r="I81" s="17"/>
-    </row>
-    <row r="82" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A82" s="18"/>
-      <c r="B82" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C82" s="29"/>
-      <c r="D82" s="8"/>
       <c r="E82" s="14"/>
+      <c r="I82" s="17"/>
     </row>
     <row r="83" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A83" s="18"/>
       <c r="B83" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C83" s="29">
-        <v>365000</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C83" s="29"/>
       <c r="D83" s="8"/>
       <c r="E83" s="14"/>
     </row>
@@ -2192,14 +2199,16 @@
       <c r="B84" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C84" s="29"/>
+      <c r="C84" s="29">
+        <v>0</v>
+      </c>
       <c r="D84" s="8"/>
       <c r="E84" s="14"/>
     </row>
     <row r="85" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A85" s="18"/>
       <c r="B85" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C85" s="29"/>
       <c r="D85" s="8"/>
@@ -2208,7 +2217,7 @@
     <row r="86" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A86" s="18"/>
       <c r="B86" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C86" s="29"/>
       <c r="D86" s="8"/>
@@ -2217,31 +2226,40 @@
     <row r="87" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A87" s="18"/>
       <c r="B87" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C87" s="29"/>
       <c r="D87" s="8"/>
       <c r="E87" s="14"/>
     </row>
     <row r="88" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A88" s="15"/>
-      <c r="B88" s="19" t="s">
+      <c r="A88" s="18"/>
+      <c r="B88" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="29"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="14"/>
+    </row>
+    <row r="89" spans="1:9" s="6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A89" s="15"/>
+      <c r="B89" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C88" s="30">
-        <f>SUM(C82:C87)</f>
-        <v>365000</v>
-      </c>
-      <c r="D88" s="20"/>
-      <c r="E88" s="14"/>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="3"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
+      <c r="C89" s="30">
+        <f>SUM(C83:C88)</f>
+        <v>0</v>
+      </c>
+      <c r="D89" s="20"/>
+      <c r="E89" s="14"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="3"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:E76">
+  <autoFilter ref="A4:E77">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2251,9 +2269,9 @@
   <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="A79:D79"/>
     <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
